--- a/data/trans_camb/P29A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P29A-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>8.333174969500979</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.913822045355662</v>
+        <v>1.913822045355684</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.155073500484132</v>
@@ -664,7 +664,7 @@
         <v>7.637638862961782</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.240420791862674</v>
+        <v>2.240420791862685</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.30591157567267</v>
+        <v>-4.782090363802671</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02382324680739468</v>
+        <v>-0.1638096971235023</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.29609212518552</v>
+        <v>-6.45304007195647</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.891599097124424</v>
+        <v>-1.449471162868538</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.004933782337726</v>
+        <v>-0.9656045450650588</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.495271765324632</v>
+        <v>-4.201615784590192</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2447601191731751</v>
+        <v>-0.7889242923215362</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.518104366521462</v>
+        <v>1.466925105983677</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.75873893093159</v>
+        <v>-3.899767690277274</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.5118689078233</v>
+        <v>12.72617907204365</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.13842631112315</v>
+        <v>16.88129467479872</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.598324640896468</v>
+        <v>9.900626127358912</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.71137573658986</v>
+        <v>14.33553516094898</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.98675931840346</v>
+        <v>15.18538721320593</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.24771578949024</v>
+        <v>9.702340930891594</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.93274136280642</v>
+        <v>11.42336833777007</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.16952249609785</v>
+        <v>14.02548483319605</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.564136097011042</v>
+        <v>7.924597543204924</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1622130874927463</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.03725434591557789</v>
+        <v>0.03725434591557832</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2206441386758808</v>
@@ -769,7 +769,7 @@
         <v>0.1917390471504344</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.05624462684809197</v>
+        <v>0.05624462684809225</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05936123667943022</v>
+        <v>-0.08342924744750828</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.0001526417847832349</v>
+        <v>-0.006348620914760376</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1165035815996763</v>
+        <v>-0.1168773076474252</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05376379203469236</v>
+        <v>-0.04503611212540586</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03301276331384558</v>
+        <v>-0.03059082619758097</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1406600129693952</v>
+        <v>-0.1272167783549593</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.006333821468597004</v>
+        <v>-0.01920872635181467</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03212118534287771</v>
+        <v>0.03256993027928656</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.08586904894443821</v>
+        <v>-0.0897671739036297</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2964737275605606</v>
+        <v>0.2687611518438522</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3692538261690777</v>
+        <v>0.3553003775253322</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2054012367892722</v>
+        <v>0.2117468483962378</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6346617655699414</v>
+        <v>0.5990841336302746</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6361217740057846</v>
+        <v>0.6498769215136433</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4559446051855634</v>
+        <v>0.4276456818589229</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3248962973941577</v>
+        <v>0.3100975434925322</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3789339960293979</v>
+        <v>0.3917049779006082</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.210161222984945</v>
+        <v>0.2187746125115983</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>9.18837311256982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.67452591423382</v>
+        <v>6.674525914233814</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>12.3463686878249</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.199879988674217</v>
+        <v>8.182993618784513</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.718435128997684</v>
+        <v>2.50071198777278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8341011762813316</v>
+        <v>0.1262796837027036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.453021756396841</v>
+        <v>7.828840022171931</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.503311690608356</v>
+        <v>1.401681780957672</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.622304541931438</v>
+        <v>6.404699573772127</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.023358554419326</v>
+        <v>9.251780528670302</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.322414845458664</v>
+        <v>3.458638863344188</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.533442800054276</v>
+        <v>4.208018519716984</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.42875441371733</v>
+        <v>21.45137901029828</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.91969886519271</v>
+        <v>15.19360452875707</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.51668705931486</v>
+        <v>13.79555710713488</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.59791580267853</v>
+        <v>17.14279181558875</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.79837580144181</v>
+        <v>10.24219146748052</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.47164654022193</v>
+        <v>15.65078219355271</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.85731806544008</v>
+        <v>17.58024811423486</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.00234794586478</v>
+        <v>11.72483203892441</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.20350803124858</v>
+        <v>13.13515822311119</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.216174336222135</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1570311949057751</v>
+        <v>0.157031194905775</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.067133005940204</v>
@@ -974,7 +974,7 @@
         <v>0.5503376036735586</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9456811861850294</v>
+        <v>0.9456811861850296</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4974544441778849</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1784900212243262</v>
+        <v>0.1815254502545246</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06079780211216164</v>
+        <v>0.05214136500070214</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01792229951126134</v>
+        <v>0.002287961952805006</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5352661788341169</v>
+        <v>0.5666877238598332</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1131600197085973</v>
+        <v>0.09650580811894958</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5008705921916409</v>
+        <v>0.4547791126279222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3122220627527755</v>
+        <v>0.3128332222911649</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1101976796670035</v>
+        <v>0.123605615520557</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1552337049153083</v>
+        <v>0.1461978853026645</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5464371038474711</v>
+        <v>0.5498310553476332</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.410264141012288</v>
+        <v>0.3883911604687504</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3430321022479005</v>
+        <v>0.340954828725553</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.853950660709883</v>
+        <v>1.754001133104617</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.136711681218259</v>
+        <v>1.022868824095716</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.660611041871916</v>
+        <v>1.659420856775991</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7179868639526192</v>
+        <v>0.7064845109743253</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4844208299909267</v>
+        <v>0.481729739676708</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5270046009425997</v>
+        <v>0.5234970232065231</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>9.770254158906397</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.007463807577787196</v>
+        <v>0.007463807577795523</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.893027051613345</v>
@@ -1092,7 +1092,7 @@
         <v>5.981340969839527</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.5297277168735792</v>
+        <v>-0.5297277168735626</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.426073099134138</v>
+        <v>-10.16448870239691</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.389865177580965</v>
+        <v>-5.463665682826996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.282500642487384</v>
+        <v>-8.133242727176945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4242109665341555</v>
+        <v>0.7921180839937881</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.572566170427401</v>
+        <v>2.59574507870132</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.048979682147023</v>
+        <v>-6.12498581901191</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.543865878801814</v>
+        <v>-2.795182803868031</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1888124593758153</v>
+        <v>0.2956527053347964</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.59819889254447</v>
+        <v>-5.600131243126794</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.167641352896011</v>
+        <v>6.066481563996221</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.59652888283776</v>
+        <v>10.53260423185501</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.212508726683955</v>
+        <v>7.973054571922508</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.42763351619825</v>
+        <v>15.05069738700878</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.24356880946366</v>
+        <v>16.86065100761015</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.626875170984981</v>
+        <v>5.951402277481019</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.429870990271022</v>
+        <v>8.425502291280452</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.43518863917423</v>
+        <v>11.48394393742734</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.350888305641172</v>
+        <v>4.542349950485596</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.3918432460712286</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0002993415055293228</v>
+        <v>0.0002993415055296568</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.06951334231740294</v>
@@ -1197,7 +1197,7 @@
         <v>0.1437190164266503</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.0127282405110987</v>
+        <v>-0.0127282405110983</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1513009834611239</v>
+        <v>-0.1638966343052679</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0687740773741798</v>
+        <v>-0.0840976342436765</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1175731422661337</v>
+        <v>-0.1291511829974042</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.0003657579039553702</v>
+        <v>0.02709270622414448</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08726115142920141</v>
+        <v>0.09363351305928572</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2101566580126962</v>
+        <v>-0.2189281995991747</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05617591377177086</v>
+        <v>-0.06213387869704233</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.001635304393415807</v>
+        <v>0.00610255889179267</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1258577564414561</v>
+        <v>-0.1252596326648753</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.111583192969673</v>
+        <v>0.107821635177488</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1895112999447463</v>
+        <v>0.1907636851959381</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1292603614570897</v>
+        <v>0.1428575768540398</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6416021714746698</v>
+        <v>0.6890212516451961</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.762672154500358</v>
+        <v>0.7741470921345656</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3129516210211299</v>
+        <v>0.2732356611681691</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.217608237197146</v>
+        <v>0.2223747976648888</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2885203946666263</v>
+        <v>0.2959598158709292</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1136008974243715</v>
+        <v>0.120382786609252</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-5.800172015442295</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-10.38488470885575</v>
+        <v>-10.38488470885576</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-15.94511687660278</v>
@@ -1297,7 +1297,7 @@
         <v>1.411661420957261</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.708868495517712</v>
+        <v>-1.708868495517707</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-17.06477911698617</v>
@@ -1306,7 +1306,7 @@
         <v>-2.126082790613337</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-6.364052577866336</v>
+        <v>-6.364052577866341</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-25.94192006672069</v>
+        <v>-25.53238523650167</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.72565247458085</v>
+        <v>-13.0016449180931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.92560309053965</v>
+        <v>-19.21668459131355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-21.91283158395333</v>
+        <v>-22.31546355470891</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.435106014734454</v>
+        <v>-5.389675411430082</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.436597401186567</v>
+        <v>-8.391186493527547</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-21.74177097371059</v>
+        <v>-22.1673181692487</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-7.713343580779064</v>
+        <v>-7.496177378109012</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-11.57215649663383</v>
+        <v>-12.08547657221105</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-9.626332553650172</v>
+        <v>-10.85642394921282</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.255076706861538</v>
+        <v>1.379973673191238</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.14659276690093</v>
+        <v>-1.833438875260216</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-9.819575704689246</v>
+        <v>-10.13124183488942</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.745659024890866</v>
+        <v>8.481335505724761</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.357635201707389</v>
+        <v>4.738259206719063</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-11.81810638622303</v>
+        <v>-12.21051675858208</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.816559765986951</v>
+        <v>2.9941701327957</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.057734506076407</v>
+        <v>-0.9084010449512745</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.08936518404591665</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1600033810776128</v>
+        <v>-0.160003381077613</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.4621757500806702</v>
@@ -1402,7 +1402,7 @@
         <v>0.04091758506005212</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.04953225396949221</v>
+        <v>-0.04953225396949205</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3457746896036962</v>
@@ -1411,7 +1411,7 @@
         <v>-0.04307970305131743</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1289514672090273</v>
+        <v>-0.1289514672090274</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3774234536740666</v>
+        <v>-0.3808386583904312</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1915235403803777</v>
+        <v>-0.1891784786771576</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2820752990594319</v>
+        <v>-0.2895115542729887</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5841169973094213</v>
+        <v>-0.5973749040543989</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1433658063664572</v>
+        <v>-0.1385336780206949</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2214638688859177</v>
+        <v>-0.219015568116673</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4240610025703937</v>
+        <v>-0.4266062599541475</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1467073936468348</v>
+        <v>-0.1470540190702568</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2260427980107684</v>
+        <v>-0.2355756504409306</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1583599525453948</v>
+        <v>-0.177631570149386</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.03682127109558679</v>
+        <v>0.02179401619580853</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.03538584417574774</v>
+        <v>-0.02897661961070938</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.3156539987873558</v>
+        <v>-0.3197175191158542</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2815323220931257</v>
+        <v>0.2670226828238254</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1325119705313113</v>
+        <v>0.1512409223809255</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2513340399062736</v>
+        <v>-0.2595691207209672</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0609677018126418</v>
+        <v>0.06291461905435898</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.02277792898189806</v>
+        <v>-0.01939547400506781</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.65419844173646</v>
+        <v>5.015553118952072</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.4712929707823</v>
+        <v>-11.02780135290574</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-34.47378814637535</v>
+        <v>-34.38999713082772</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.72155925705684</v>
+        <v>-5.090935635475715</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.697709816794955</v>
+        <v>-9.040844265240775</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-19.9095327198533</v>
+        <v>-19.71654385491259</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.236788876113832</v>
+        <v>1.866881528328229</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.664147633658436</v>
+        <v>-7.431114861786272</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-24.98301742763777</v>
+        <v>-25.08675154655678</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.23682524522791</v>
+        <v>24.11392995988836</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.747477668941842</v>
+        <v>8.289933941493414</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-18.05503246766601</v>
+        <v>-17.67045414945682</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.67070122653557</v>
+        <v>10.9959754734901</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.474122091391921</v>
+        <v>6.102641014063999</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-7.934504066570071</v>
+        <v>-7.711330081400471</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>15.58300153614071</v>
+        <v>16.0752638456182</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.258478787106879</v>
+        <v>5.26999541959492</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-14.60398916809694</v>
+        <v>-14.45256043598521</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.06208737602979748</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.7388858217712164</v>
+        <v>-0.7388858217712166</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2989023606643224</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.09701230196934341</v>
+        <v>0.1098003681067167</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2262054001933638</v>
+        <v>-0.234849423801364</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7334368589656489</v>
+        <v>-0.7174968066326366</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1765675094569659</v>
+        <v>-0.2436171383226104</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3710753639596235</v>
+        <v>-0.3950590686118404</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8578736106598577</v>
+        <v>-0.8537474677945516</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0717424610428488</v>
+        <v>0.0531531001942883</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.226649183000265</v>
+        <v>-0.2239931857505733</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7464932767886586</v>
+        <v>-0.7444035624085373</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6538455122632554</v>
+        <v>0.6619301595641496</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2396640617509845</v>
+        <v>0.2183011255428159</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4817792317620246</v>
+        <v>-0.4653689058892316</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.834151022898641</v>
+        <v>0.8148387716355232</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3824946692252212</v>
+        <v>0.4076402092562034</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.5181235943187964</v>
+        <v>-0.5068335031258345</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5874026706695821</v>
+        <v>0.5951183098579855</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1955788348010411</v>
+        <v>0.2012351678968662</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.5375334549579253</v>
+        <v>-0.5408729000835377</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-1.48823027264865</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.768520583306654</v>
+        <v>-1.768520583306671</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-7.626342759049559</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-13.45526180959932</v>
+        <v>-13.16006378152593</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.736315121437045</v>
+        <v>-7.288169554855098</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-17.74517498976823</v>
+        <v>-18.27250643002897</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-17.09383170743304</v>
+        <v>-16.80545430333572</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.892076597486309</v>
+        <v>-10.11529806816083</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-9.167799967643594</v>
+        <v>-9.178825354388753</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-13.34115857332603</v>
+        <v>-13.70741912613907</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.730403289378015</v>
+        <v>-6.743351451744549</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-11.00876877289535</v>
+        <v>-11.2859848065813</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.606047563862596</v>
+        <v>2.695579344734586</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.230023669068932</v>
+        <v>7.378746893513885</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-2.97124366973871</v>
+        <v>-3.535280033985949</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.164491283204821</v>
+        <v>-1.693922486436611</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.988007106151957</v>
+        <v>6.765940177206106</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.703184152181039</v>
+        <v>6.064151670589093</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-1.149922591218385</v>
+        <v>-1.727418129974158</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.409219410050168</v>
+        <v>4.925962507772946</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.2499553101185689</v>
+        <v>-0.1140415924052482</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.03816132636491144</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.0453485541874621</v>
+        <v>-0.04534855418746252</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.1394468931183394</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1824397558145011</v>
+        <v>-0.1819357254830839</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1164617419735181</v>
+        <v>-0.09781362755560465</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2417901323764421</v>
+        <v>-0.2457074142850641</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3967722372835452</v>
+        <v>-0.3903526125897738</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2213104688086982</v>
+        <v>-0.2336410509782083</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2137026234620913</v>
+        <v>-0.2136137862459725</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2344963090188324</v>
+        <v>-0.239715491265794</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1177062026862794</v>
+        <v>-0.1184903124951795</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1931811134123421</v>
+        <v>-0.1949874225653151</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.03870587774864381</v>
+        <v>0.03884656467468457</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.109456586041317</v>
+        <v>0.1117277455479976</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.04390628704781214</v>
+        <v>-0.05033992305894886</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.03636598217067364</v>
+        <v>-0.04308067493127893</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1959419893463303</v>
+        <v>0.1985939008977585</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1622832292769236</v>
+        <v>0.1762257411176813</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.02359397619849399</v>
+        <v>-0.03486911807801266</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1059242870162748</v>
+        <v>0.09451811434208449</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.007018693678531026</v>
+        <v>5.473961888746152e-05</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>14.50731035620923</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>7.484375974609319</v>
+        <v>7.484375974609331</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.101145252859911</v>
+        <v>6.330302738866606</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>6.085448670683387</v>
+        <v>6.897185211462572</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.213743342395709</v>
+        <v>-2.410726359995055</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.836012998115209</v>
+        <v>2.548577607494811</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>11.84667014822139</v>
+        <v>11.43429134897702</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.36582305050124</v>
+        <v>6.885901437669322</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.449844025723029</v>
+        <v>5.699282154357252</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>10.3876286444546</v>
+        <v>10.55676274323702</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.862784383891835</v>
+        <v>3.617666366452898</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>17.44402690317298</v>
+        <v>18.117437397931</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>17.83421902911618</v>
+        <v>17.81358172559161</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.959023276268402</v>
+        <v>9.304893856718547</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.81802483800514</v>
+        <v>12.49917592391592</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>21.30213338898372</v>
+        <v>21.7317354955899</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>15.55057255663775</v>
+        <v>15.38275026916904</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>13.13986088923106</v>
+        <v>13.11404792496022</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>18.06665526160663</v>
+        <v>18.38111257232097</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>11.5095244250553</v>
+        <v>10.83754108996624</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.4513594705902402</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.232858048435705</v>
+        <v>0.2328580484357054</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.125179713516882</v>
+        <v>0.1270235748856107</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1237409754952972</v>
+        <v>0.1410870193462006</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.04850188306547206</v>
+        <v>-0.04939356933617601</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1251768028590473</v>
+        <v>0.1011839238236912</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.5288603153635386</v>
+        <v>0.5022778404893908</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2832439235064677</v>
+        <v>0.3093405334976965</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1590037947100016</v>
+        <v>0.1657267006655827</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3002323346013929</v>
+        <v>0.3051195943750877</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1154948517052773</v>
+        <v>0.1063652324280349</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4181982283330882</v>
+        <v>0.4290143947996706</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4200093592087209</v>
+        <v>0.4203850646008869</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2351790340596594</v>
+        <v>0.2225325055583964</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7295498445602855</v>
+        <v>0.7093826659936758</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.219318843507631</v>
+        <v>1.228969711860858</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9016292323127659</v>
+        <v>0.9132042492503742</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4375372890756117</v>
+        <v>0.4362746386777001</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5970824923079671</v>
+        <v>0.595153425000073</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3872315434597183</v>
+        <v>0.3617083067378029</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>-2.194257297535818</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-18.33565465745894</v>
+        <v>-18.33565465745895</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-13.76657810448254</v>
+        <v>-13.83553842440291</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-12.28098902328689</v>
+        <v>-12.10032240138371</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-29.31323564843814</v>
+        <v>-28.44761228028971</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-8.634187776392439</v>
+        <v>-8.890790925916233</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.693979351502386</v>
+        <v>-2.110093956551263</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-16.82253018274022</v>
+        <v>-16.93388545950991</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-10.27344348901873</v>
+        <v>-10.4850728106766</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-5.935549125539653</v>
+        <v>-5.951209957791885</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-21.35854136694807</v>
+        <v>-21.6942159038612</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-3.369393745333788</v>
+        <v>-3.512634109385414</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.433724694089507</v>
+        <v>-2.043476545024734</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-18.97435307658575</v>
+        <v>-18.50343842202685</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.09937352141548361</v>
+        <v>-0.02237112553400029</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>7.595429434683493</v>
+        <v>7.222781881481525</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-9.174653523927221</v>
+        <v>-9.409831286971071</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-2.788328822941086</v>
+        <v>-3.193215686974339</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.630611253749506</v>
+        <v>1.32484009940364</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-14.7859309132767</v>
+        <v>-14.90097776480926</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>-0.04904906261500398</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.4098638178807799</v>
+        <v>-0.40986381788078</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2133543947905535</v>
+        <v>-0.2112189583273324</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.187733382729857</v>
+        <v>-0.1856779398461671</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4429229771305925</v>
+        <v>-0.4367202023715686</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2933053835837758</v>
+        <v>-0.2997092373169837</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.05825072579723893</v>
+        <v>-0.06936823788146385</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5767428072279652</v>
+        <v>-0.5788544391080259</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2206279051196695</v>
+        <v>-0.2237975031093283</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1273128172233546</v>
+        <v>-0.128934152014582</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.4654604234627452</v>
+        <v>-0.468707964097011</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.05475378475143151</v>
+        <v>-0.05806784729849202</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.03942025219601707</v>
+        <v>-0.0331064341667595</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3111586846893623</v>
+        <v>-0.3077750694732539</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.004532541414046776</v>
+        <v>-0.0008739842243272411</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3028518611975622</v>
+        <v>0.2951196893424554</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.3695253306671903</v>
+        <v>-0.3772432242568774</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.06609366042745844</v>
+        <v>-0.07279463388458217</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.04181106464615491</v>
+        <v>0.02896024491228544</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.3451825752369059</v>
+        <v>-0.3458398207419572</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>2.181697820725037</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-7.212276983101196</v>
+        <v>-7.212276983101207</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1.152863156805375</v>
@@ -2376,7 +2376,7 @@
         <v>4.102693030589244</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-3.713390896373342</v>
+        <v>-3.713390896373336</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.635939550837851</v>
+        <v>-1.318963248432894</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.2656759675500467</v>
+        <v>-0.4475348782821791</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-9.823712161236656</v>
+        <v>-9.547804162953275</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.260696664111792</v>
+        <v>-0.9279887450033883</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>3.882176850751506</v>
+        <v>3.747537716090641</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-2.261189883604874</v>
+        <v>-1.94961598586505</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.5998952537085891</v>
+        <v>-0.6012386508094126</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>2.259000483613042</v>
+        <v>2.335161614382543</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-5.412959123437975</v>
+        <v>-5.41014774880284</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.538653051190355</v>
+        <v>3.639865887702957</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4.740221218764538</v>
+        <v>4.608315538128347</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-4.621944554549917</v>
+        <v>-4.765159352604782</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.224727851854815</v>
+        <v>3.322503323733832</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>8.361956173368126</v>
+        <v>8.345723685090272</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.742957130661353</v>
+        <v>1.692026684837511</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.801222258695829</v>
+        <v>2.671513015318471</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>5.686472576833699</v>
+        <v>5.765288407834209</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-2.075853540650339</v>
+        <v>-2.029175116713983</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.03970826081375897</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.1312679385685405</v>
+        <v>-0.1312679385685407</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.04702211539720091</v>
@@ -2481,7 +2481,7 @@
         <v>0.1040349649615507</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.09416314818397636</v>
+        <v>-0.09416314818397623</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.02865585968675241</v>
+        <v>-0.02344427242641367</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.004090615217815327</v>
+        <v>-0.007964718710103902</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1747986943437874</v>
+        <v>-0.170353072008405</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.04801771314206593</v>
+        <v>-0.03651780571483013</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1552429268281635</v>
+        <v>0.1500323635506371</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.08779997097245151</v>
+        <v>-0.07709848085487012</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.01511850060515179</v>
+        <v>-0.01487447745023573</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.05549956954241884</v>
+        <v>0.05894914033410763</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.1339627208016926</v>
+        <v>-0.1344275550855366</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.06610239954417244</v>
+        <v>0.06756457981955823</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.08890683483488981</v>
+        <v>0.08603484144490868</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.08703717374181121</v>
+        <v>-0.08790429114205421</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1386244305947751</v>
+        <v>0.1419462274288507</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3584731600243353</v>
+        <v>0.3587279046897107</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.07348515906489259</v>
+        <v>0.0716322798962274</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.0729493799466598</v>
+        <v>0.06933252158550607</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1465657645824953</v>
+        <v>0.1500003987258487</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.05361401984483437</v>
+        <v>-0.05243722054222952</v>
       </c>
     </row>
     <row r="58">
